--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.569336</v>
+        <v>0.3194513333333333</v>
       </c>
       <c r="H2">
-        <v>1.708008</v>
+        <v>0.9583539999999999</v>
       </c>
       <c r="I2">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="J2">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N2">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q2">
-        <v>33.84815096705066</v>
+        <v>10.71647308882889</v>
       </c>
       <c r="R2">
-        <v>304.633358703456</v>
+        <v>96.44825779945999</v>
       </c>
       <c r="S2">
-        <v>0.005891223826134229</v>
+        <v>0.002168655804469028</v>
       </c>
       <c r="T2">
-        <v>0.005891223826134229</v>
+        <v>0.002168655804469028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.569336</v>
+        <v>0.3194513333333333</v>
       </c>
       <c r="H3">
-        <v>1.708008</v>
+        <v>0.9583539999999999</v>
       </c>
       <c r="I3">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="J3">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>321.531037</v>
       </c>
       <c r="O3">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P3">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q3">
-        <v>61.01973149381065</v>
+        <v>34.23783949256644</v>
       </c>
       <c r="R3">
-        <v>549.1775834442959</v>
+        <v>308.140555433098</v>
       </c>
       <c r="S3">
-        <v>0.0106203998082668</v>
+        <v>0.006928593832371325</v>
       </c>
       <c r="T3">
-        <v>0.0106203998082668</v>
+        <v>0.006928593832371327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.569336</v>
+        <v>0.3194513333333333</v>
       </c>
       <c r="H4">
-        <v>1.708008</v>
+        <v>0.9583539999999999</v>
       </c>
       <c r="I4">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="J4">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q4">
-        <v>16.393303647264</v>
+        <v>9.198193523431998</v>
       </c>
       <c r="R4">
-        <v>147.539732825376</v>
+        <v>82.78374171088798</v>
       </c>
       <c r="S4">
-        <v>0.002853231809614266</v>
+        <v>0.00186140679026332</v>
       </c>
       <c r="T4">
-        <v>0.002853231809614265</v>
+        <v>0.00186140679026332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>84.94397599999999</v>
       </c>
       <c r="I5">
-        <v>0.9630679809930072</v>
+        <v>0.9713235907985359</v>
       </c>
       <c r="J5">
-        <v>0.9630679809930072</v>
+        <v>0.971323590798536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N5">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q5">
-        <v>1683.362445251737</v>
+        <v>949.8576025791375</v>
       </c>
       <c r="R5">
-        <v>15150.26200726563</v>
+        <v>8548.718423212238</v>
       </c>
       <c r="S5">
-        <v>0.2929869036314666</v>
+        <v>0.1922194164234487</v>
       </c>
       <c r="T5">
-        <v>0.2929869036314666</v>
+        <v>0.1922194164234488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>84.94397599999999</v>
       </c>
       <c r="I6">
-        <v>0.9630679809930072</v>
+        <v>0.9713235907985359</v>
       </c>
       <c r="J6">
-        <v>0.9630679809930072</v>
+        <v>0.971323590798536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>321.531037</v>
       </c>
       <c r="O6">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P6">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q6">
         <v>3034.680521131456</v>
@@ -818,10 +818,10 @@
         <v>27312.12469018311</v>
       </c>
       <c r="S6">
-        <v>0.5281819443608107</v>
+        <v>0.6141178606346902</v>
       </c>
       <c r="T6">
-        <v>0.5281819443608106</v>
+        <v>0.6141178606346902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>84.94397599999999</v>
       </c>
       <c r="I7">
-        <v>0.9630679809930072</v>
+        <v>0.9713235907985359</v>
       </c>
       <c r="J7">
-        <v>0.9630679809930072</v>
+        <v>0.971323590798536</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q7">
         <v>815.2844668022078</v>
@@ -880,10 +880,10 @@
         <v>7337.560201219871</v>
       </c>
       <c r="S7">
-        <v>0.1418991330007299</v>
+        <v>0.164986313740397</v>
       </c>
       <c r="T7">
-        <v>0.1418991330007299</v>
+        <v>0.164986313740397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.549449</v>
       </c>
       <c r="I8">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="J8">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N8">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q8">
-        <v>30.705935609052</v>
+        <v>17.32619523789</v>
       </c>
       <c r="R8">
-        <v>276.353420481468</v>
+        <v>155.93575714101</v>
       </c>
       <c r="S8">
-        <v>0.005344325592257095</v>
+        <v>0.003506242544590758</v>
       </c>
       <c r="T8">
-        <v>0.005344325592257095</v>
+        <v>0.003506242544590758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.549449</v>
       </c>
       <c r="I9">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="J9">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>321.531037</v>
       </c>
       <c r="O9">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P9">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q9">
         <v>55.355104860957</v>
@@ -1004,10 +1004,10 @@
         <v>498.195943748613</v>
       </c>
       <c r="S9">
-        <v>0.009634479383304518</v>
+        <v>0.01120202220158096</v>
       </c>
       <c r="T9">
-        <v>0.009634479383304516</v>
+        <v>0.01120202220158096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.549449</v>
       </c>
       <c r="I10">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="J10">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q10">
         <v>14.871468952692</v>
@@ -1066,10 +1066,10 @@
         <v>133.843220574228</v>
       </c>
       <c r="S10">
-        <v>0.002588358587415875</v>
+        <v>0.003009488028188656</v>
       </c>
       <c r="T10">
-        <v>0.002588358587415875</v>
+        <v>0.003009488028188655</v>
       </c>
     </row>
   </sheetData>
